--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -39,6 +39,60 @@
   </si>
   <si>
     <t>Doimiy</t>
+  </si>
+  <si>
+    <t>Sherali</t>
+  </si>
+  <si>
+    <t>907549737</t>
+  </si>
+  <si>
+    <t>Toshkent shahri</t>
+  </si>
+  <si>
+    <t>Yunusobod tumani</t>
+  </si>
+  <si>
+    <t>30-45</t>
+  </si>
+  <si>
+    <t>Dasturchi????‍??</t>
+  </si>
+  <si>
+    <t>o'rta</t>
+  </si>
+  <si>
+    <t>Vaqtincha</t>
+  </si>
+  <si>
+    <t>Svetlana</t>
+  </si>
+  <si>
+    <t>904564545</t>
+  </si>
+  <si>
+    <t>Namangan</t>
+  </si>
+  <si>
+    <t>Chust tumani</t>
+  </si>
+  <si>
+    <t>Ayol</t>
+  </si>
+  <si>
+    <t>Oqituvchi ??‍??</t>
+  </si>
+  <si>
+    <t>Salomat</t>
+  </si>
+  <si>
+    <t>946913516</t>
+  </si>
+  <si>
+    <t>Bektemir tumani</t>
+  </si>
+  <si>
+    <t>Va boshqalar ??</t>
   </si>
 </sst>
 </file>
@@ -118,6 +172,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -93,6 +93,213 @@
   </si>
   <si>
     <t>Va boshqalar ??</t>
+  </si>
+  <si>
+    <t>Farrux</t>
+  </si>
+  <si>
+    <t>991234567</t>
+  </si>
+  <si>
+    <t>Hamrayev Behzod</t>
+  </si>
+  <si>
+    <t>974408082</t>
+  </si>
+  <si>
+    <t>Yangi Hayot tumani</t>
+  </si>
+  <si>
+    <t>Sirojiddin</t>
+  </si>
+  <si>
+    <t>914516793</t>
+  </si>
+  <si>
+    <t>Qashqadaryo</t>
+  </si>
+  <si>
+    <t>Guzor tumani</t>
+  </si>
+  <si>
+    <t>Shahzod</t>
+  </si>
+  <si>
+    <t>945761040</t>
+  </si>
+  <si>
+    <t>Chilonzor tumani</t>
+  </si>
+  <si>
+    <t>Menejer??</t>
+  </si>
+  <si>
+    <t>Алишер</t>
+  </si>
+  <si>
+    <t>990017434</t>
+  </si>
+  <si>
+    <t>Navoi</t>
+  </si>
+  <si>
+    <t>Karmana tumani</t>
+  </si>
+  <si>
+    <t>Qoravul ????‍♂️</t>
+  </si>
+  <si>
+    <t>93 434 75 05</t>
+  </si>
+  <si>
+    <t>Maruf</t>
+  </si>
+  <si>
+    <t>+998975926393</t>
+  </si>
+  <si>
+    <t>Xumoyun</t>
+  </si>
+  <si>
+    <t>91 439 21 35</t>
+  </si>
+  <si>
+    <t>Sotuvchi ⚖️</t>
+  </si>
+  <si>
+    <t>Bobur</t>
+  </si>
+  <si>
+    <t>916188306</t>
+  </si>
+  <si>
+    <t>Oltinkol tumani</t>
+  </si>
+  <si>
+    <t>Texnikalar ustasi ??</t>
+  </si>
+  <si>
+    <t>Bobir</t>
+  </si>
+  <si>
+    <t>951112200</t>
+  </si>
+  <si>
+    <t>Shafyor ??</t>
+  </si>
+  <si>
+    <t>Orombek</t>
+  </si>
+  <si>
+    <t>97 291 3824</t>
+  </si>
+  <si>
+    <t>Qarshi tumani</t>
+  </si>
+  <si>
+    <t>Инобат</t>
+  </si>
+  <si>
+    <t>94 890 15 75</t>
+  </si>
+  <si>
+    <t>Oshpaz????‍??</t>
+  </si>
+  <si>
+    <t>Dilshoda</t>
+  </si>
+  <si>
+    <t>99 020 6919</t>
+  </si>
+  <si>
+    <t>Andijon tumani</t>
+  </si>
+  <si>
+    <t>Shotemur Shoikromov</t>
+  </si>
+  <si>
+    <t>90 370 6206</t>
+  </si>
+  <si>
+    <t>Uchtepe tumani</t>
+  </si>
+  <si>
+    <t>Саломат</t>
+  </si>
+  <si>
+    <t>996499896</t>
+  </si>
+  <si>
+    <t>Xorazm</t>
+  </si>
+  <si>
+    <t>Urganch shahri</t>
+  </si>
+  <si>
+    <t>Nodirbek</t>
+  </si>
+  <si>
+    <t>945693010</t>
+  </si>
+  <si>
+    <t>Sartarosh ✂️</t>
+  </si>
+  <si>
+    <t>Tojimurodov Nurbek Asrorjon o'g'li</t>
+  </si>
+  <si>
+    <t>993259109</t>
+  </si>
+  <si>
+    <t>Faxriddin</t>
+  </si>
+  <si>
+    <t>90 306 28 20</t>
+  </si>
+  <si>
+    <t>Olmazor tumani</t>
+  </si>
+  <si>
+    <t>Хосият турсунпулатова</t>
+  </si>
+  <si>
+    <t>+998975359008</t>
+  </si>
+  <si>
+    <t>Surxondaryo</t>
+  </si>
+  <si>
+    <t>Qiziriq tumani</t>
+  </si>
+  <si>
+    <t>975441039</t>
+  </si>
+  <si>
+    <t>Toshkent viloyati</t>
+  </si>
+  <si>
+    <t>Yuqori Chirchiq tumani</t>
+  </si>
+  <si>
+    <t>Buxgalter??</t>
+  </si>
+  <si>
+    <t>Sherzot</t>
+  </si>
+  <si>
+    <t>971793434</t>
+  </si>
+  <si>
+    <t>MardikorⓂ️</t>
+  </si>
+  <si>
+    <t>Шохрух</t>
+  </si>
+  <si>
+    <t>93 159 98 88</t>
+  </si>
+  <si>
+    <t>Termiz shahri</t>
   </si>
 </sst>
 </file>
@@ -259,6 +466,673 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>Termiz shahri</t>
+  </si>
+  <si>
+    <t>Умид</t>
+  </si>
+  <si>
+    <t>992891919</t>
+  </si>
+  <si>
+    <t>Ohangaron tumani</t>
+  </si>
+  <si>
+    <t>Quruvchi ????</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1145,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="166">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -312,6 +312,204 @@
   </si>
   <si>
     <t>Quruvchi ????</t>
+  </si>
+  <si>
+    <t>Иски ишлар</t>
+  </si>
+  <si>
+    <t>974222161</t>
+  </si>
+  <si>
+    <t>O'rol Tojiyev</t>
+  </si>
+  <si>
+    <t>915822802</t>
+  </si>
+  <si>
+    <t>Murod</t>
+  </si>
+  <si>
+    <t>903544208</t>
+  </si>
+  <si>
+    <t>Orta Chirchiq tumani</t>
+  </si>
+  <si>
+    <t>Soatmurod</t>
+  </si>
+  <si>
+    <t>995092251</t>
+  </si>
+  <si>
+    <t>Shomurod</t>
+  </si>
+  <si>
+    <t>330969697</t>
+  </si>
+  <si>
+    <t>Navoi shahri</t>
+  </si>
+  <si>
+    <t>Shsj</t>
+  </si>
+  <si>
+    <t>901212233</t>
+  </si>
+  <si>
+    <t>Muqaddaam</t>
+  </si>
+  <si>
+    <t>337810960</t>
+  </si>
+  <si>
+    <t>Andijon shahri</t>
+  </si>
+  <si>
+    <t>Ахрор</t>
+  </si>
+  <si>
+    <t>901858984</t>
+  </si>
+  <si>
+    <t>Rahmatillo</t>
+  </si>
+  <si>
+    <t>934432015</t>
+  </si>
+  <si>
+    <t>Asadbek</t>
+  </si>
+  <si>
+    <t>99 904 14 74</t>
+  </si>
+  <si>
+    <t>Imron</t>
+  </si>
+  <si>
+    <t>+998997057033</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>Buxoro shahri</t>
+  </si>
+  <si>
+    <t>Jurayev Bahodir</t>
+  </si>
+  <si>
+    <t>940013300</t>
+  </si>
+  <si>
+    <t>Sattarova Gulnora</t>
+  </si>
+  <si>
+    <t>939940427</t>
+  </si>
+  <si>
+    <t>Nodir</t>
+  </si>
+  <si>
+    <t>+998972440698</t>
+  </si>
+  <si>
+    <t>Otabek</t>
+  </si>
+  <si>
+    <t>990018050</t>
+  </si>
+  <si>
+    <t>Nozim Jumayev</t>
+  </si>
+  <si>
+    <t>997006555</t>
+  </si>
+  <si>
+    <t>Olot tumani</t>
+  </si>
+  <si>
+    <t>Abdulloh</t>
+  </si>
+  <si>
+    <t>93 4549948</t>
+  </si>
+  <si>
+    <t>Dilnoza</t>
+  </si>
+  <si>
+    <t>+998935062216</t>
+  </si>
+  <si>
+    <t>Sardorbek</t>
+  </si>
+  <si>
+    <t>997433378</t>
+  </si>
+  <si>
+    <t>Azizbek</t>
+  </si>
+  <si>
+    <t>901259706</t>
+  </si>
+  <si>
+    <t>Ffdff</t>
+  </si>
+  <si>
+    <t>98 777 66 77</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>Jomboy tumani</t>
+  </si>
+  <si>
+    <t>Xushnudbek</t>
+  </si>
+  <si>
+    <t>950956777</t>
+  </si>
+  <si>
+    <t>Namangan shahri</t>
+  </si>
+  <si>
+    <t>Moxira</t>
+  </si>
+  <si>
+    <t>90 9189518</t>
+  </si>
+  <si>
+    <t>Mirobod tumani</t>
+  </si>
+  <si>
+    <t>Hamshira??‍⚕️</t>
+  </si>
+  <si>
+    <t>Mehriddin</t>
+  </si>
+  <si>
+    <t>900865352</t>
+  </si>
+  <si>
+    <t>Buxoro tumani</t>
+  </si>
+  <si>
+    <t>Abdulaziz</t>
+  </si>
+  <si>
+    <t>990298875</t>
+  </si>
+  <si>
+    <t>Termiz tumani</t>
+  </si>
+  <si>
+    <t>Alsher</t>
+  </si>
+  <si>
+    <t>99 842 88 50</t>
+  </si>
+  <si>
+    <t>Remont ustasi ??</t>
   </si>
 </sst>
 </file>
@@ -1174,6 +1372,847 @@
         <v>8</v>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="172">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -510,6 +510,24 @@
   </si>
   <si>
     <t>Remont ustasi ??</t>
+  </si>
+  <si>
+    <t>Dldld</t>
+  </si>
+  <si>
+    <t>+998888888888</t>
+  </si>
+  <si>
+    <t>Гггг</t>
+  </si>
+  <si>
+    <t>978768999</t>
+  </si>
+  <si>
+    <t>Fargona</t>
+  </si>
+  <si>
+    <t>Fargona shahri</t>
   </si>
 </sst>
 </file>
@@ -2213,6 +2231,64 @@
         <v>16</v>
       </c>
     </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="409">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -528,6 +528,717 @@
   </si>
   <si>
     <t>Fargona shahri</t>
+  </si>
+  <si>
+    <t>Abulqosim</t>
+  </si>
+  <si>
+    <t>911357175</t>
+  </si>
+  <si>
+    <t>Xatirchi tumani</t>
+  </si>
+  <si>
+    <t>Hd</t>
+  </si>
+  <si>
+    <t>123454544</t>
+  </si>
+  <si>
+    <t>Shayxontohur tumani</t>
+  </si>
+  <si>
+    <t>daler</t>
+  </si>
+  <si>
+    <t>900995029</t>
+  </si>
+  <si>
+    <t>Zarina</t>
+  </si>
+  <si>
+    <t>99 921 76 59</t>
+  </si>
+  <si>
+    <t>Uy ishlari ??</t>
+  </si>
+  <si>
+    <t>АНВАР</t>
+  </si>
+  <si>
+    <t>993073893</t>
+  </si>
+  <si>
+    <t>Ofitsant??</t>
+  </si>
+  <si>
+    <t>Dilafruz</t>
+  </si>
+  <si>
+    <t>998847549</t>
+  </si>
+  <si>
+    <t>90 123 4567</t>
+  </si>
+  <si>
+    <t>Dilmurod</t>
+  </si>
+  <si>
+    <t>33 7317272</t>
+  </si>
+  <si>
+    <t>Maxliyo</t>
+  </si>
+  <si>
+    <t>99 375 52 91</t>
+  </si>
+  <si>
+    <t>Tikuvchi ??</t>
+  </si>
+  <si>
+    <t>Muyasarxon</t>
+  </si>
+  <si>
+    <t>94 892 6568</t>
+  </si>
+  <si>
+    <t>Umidjon</t>
+  </si>
+  <si>
+    <t>939727679</t>
+  </si>
+  <si>
+    <t>Turg'unov Mag'rurbek</t>
+  </si>
+  <si>
+    <t>932572737</t>
+  </si>
+  <si>
+    <t>Orifova Madina</t>
+  </si>
+  <si>
+    <t>+998993158495</t>
+  </si>
+  <si>
+    <t>Sarvarbek</t>
+  </si>
+  <si>
+    <t>941008669</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>Mirzo Ulugbek tumani</t>
+  </si>
+  <si>
+    <t>Шахбозбек</t>
+  </si>
+  <si>
+    <t>940312266</t>
+  </si>
+  <si>
+    <t>Shamsiddin Bahromov</t>
+  </si>
+  <si>
+    <t>+998998070504</t>
+  </si>
+  <si>
+    <t>Shoxrux</t>
+  </si>
+  <si>
+    <t>+998996354150</t>
+  </si>
+  <si>
+    <t>Жавохир</t>
+  </si>
+  <si>
+    <t>+998333361138</t>
+  </si>
+  <si>
+    <t>Ra'no</t>
+  </si>
+  <si>
+    <t>99 862 80 80</t>
+  </si>
+  <si>
+    <t>eldor</t>
+  </si>
+  <si>
+    <t>994929797</t>
+  </si>
+  <si>
+    <t>Sobirjon</t>
+  </si>
+  <si>
+    <t>941049338</t>
+  </si>
+  <si>
+    <t>Axror</t>
+  </si>
+  <si>
+    <t>+998944006161</t>
+  </si>
+  <si>
+    <t>Сухроб</t>
+  </si>
+  <si>
+    <t>940313000</t>
+  </si>
+  <si>
+    <t>Suxrob</t>
+  </si>
+  <si>
+    <t>909219399</t>
+  </si>
+  <si>
+    <t>Gijduvon tumani</t>
+  </si>
+  <si>
+    <t>Botir</t>
+  </si>
+  <si>
+    <t>909981223</t>
+  </si>
+  <si>
+    <t>Butayorov Olimjon Mamarajabovich</t>
+  </si>
+  <si>
+    <t>94 697 8555</t>
+  </si>
+  <si>
+    <t>Sergeli tumani</t>
+  </si>
+  <si>
+    <t>978444340</t>
+  </si>
+  <si>
+    <t>Boysun tumani</t>
+  </si>
+  <si>
+    <t>Tarjimon ????‍??</t>
+  </si>
+  <si>
+    <t>Jaloldinov Javlonbek</t>
+  </si>
+  <si>
+    <t>909479523</t>
+  </si>
+  <si>
+    <t>Jalaquduq tumani</t>
+  </si>
+  <si>
+    <t>Суннатуллаев Озод</t>
+  </si>
+  <si>
+    <t>885211131</t>
+  </si>
+  <si>
+    <t>Sirdaryo</t>
+  </si>
+  <si>
+    <t>Oqoltin tumani</t>
+  </si>
+  <si>
+    <t>Dilfuza</t>
+  </si>
+  <si>
+    <t>944348043</t>
+  </si>
+  <si>
+    <t>Фахриддин</t>
+  </si>
+  <si>
+    <t>945655445</t>
+  </si>
+  <si>
+    <t>Jizzax</t>
+  </si>
+  <si>
+    <t>Jizzax shahri</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>+998971234567</t>
+  </si>
+  <si>
+    <t>Hamza tumani</t>
+  </si>
+  <si>
+    <t>Хушнида</t>
+  </si>
+  <si>
+    <t>930618761</t>
+  </si>
+  <si>
+    <t>Нафиса</t>
+  </si>
+  <si>
+    <t>937990708</t>
+  </si>
+  <si>
+    <t>973311374</t>
+  </si>
+  <si>
+    <t>Dangara tumani</t>
+  </si>
+  <si>
+    <t>Muhiddin</t>
+  </si>
+  <si>
+    <t>97841 4333</t>
+  </si>
+  <si>
+    <t>Bexzodbek</t>
+  </si>
+  <si>
+    <t>937792000</t>
+  </si>
+  <si>
+    <t>Holmurod</t>
+  </si>
+  <si>
+    <t>90 140 2741</t>
+  </si>
+  <si>
+    <t>Xojaobod tumani</t>
+  </si>
+  <si>
+    <t>Шерзод</t>
+  </si>
+  <si>
+    <t>937715896</t>
+  </si>
+  <si>
+    <t>Uchqorgon tumani</t>
+  </si>
+  <si>
+    <t>Абдуллаева Хуршида Авазовна</t>
+  </si>
+  <si>
+    <t>91 485 75 70</t>
+  </si>
+  <si>
+    <t>Marhabo</t>
+  </si>
+  <si>
+    <t>998644353</t>
+  </si>
+  <si>
+    <t>Shohzodbek Boysunov</t>
+  </si>
+  <si>
+    <t>991081117</t>
+  </si>
+  <si>
+    <t>Bandixon tumani</t>
+  </si>
+  <si>
+    <t>Maxammadjonova Shahnoza</t>
+  </si>
+  <si>
+    <t>94 568 45 55</t>
+  </si>
+  <si>
+    <t>Baxodirjon</t>
+  </si>
+  <si>
+    <t>996962475</t>
+  </si>
+  <si>
+    <t>Buvayda tumani</t>
+  </si>
+  <si>
+    <t>Зайнабхон</t>
+  </si>
+  <si>
+    <t>99 617 24 75</t>
+  </si>
+  <si>
+    <t>Shahnoza</t>
+  </si>
+  <si>
+    <t>930031893</t>
+  </si>
+  <si>
+    <t>Arxitektor??</t>
+  </si>
+  <si>
+    <t>O'tkir</t>
+  </si>
+  <si>
+    <t>996759193</t>
+  </si>
+  <si>
+    <t>Mavjuda</t>
+  </si>
+  <si>
+    <t>906257506</t>
+  </si>
+  <si>
+    <t>Izboskan tumani</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>336107704</t>
+  </si>
+  <si>
+    <t>Doniyorjon</t>
+  </si>
+  <si>
+    <t>99 970 55 01</t>
+  </si>
+  <si>
+    <t>Ruxsora</t>
+  </si>
+  <si>
+    <t>90 268 8809</t>
+  </si>
+  <si>
+    <t>33 500 7598</t>
+  </si>
+  <si>
+    <t>+998995425009</t>
+  </si>
+  <si>
+    <t>Payariq tumani</t>
+  </si>
+  <si>
+    <t>Umida</t>
+  </si>
+  <si>
+    <t>331916001</t>
+  </si>
+  <si>
+    <t>Nodira</t>
+  </si>
+  <si>
+    <t>912421784</t>
+  </si>
+  <si>
+    <t>Uzun tumani</t>
+  </si>
+  <si>
+    <t>Oʻktam</t>
+  </si>
+  <si>
+    <t>902358086</t>
+  </si>
+  <si>
+    <t>Fotima</t>
+  </si>
+  <si>
+    <t>992861784</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Qoʻchqorov Otabek Nosirjonovich</t>
+  </si>
+  <si>
+    <t>904087095</t>
+  </si>
+  <si>
+    <t>Sox tumani</t>
+  </si>
+  <si>
+    <t>Хидиров Одил</t>
+  </si>
+  <si>
+    <t>90 226 0414</t>
+  </si>
+  <si>
+    <t>Шерзодбек</t>
+  </si>
+  <si>
+    <t>971683344</t>
+  </si>
+  <si>
+    <t>Икром</t>
+  </si>
+  <si>
+    <t>991013009</t>
+  </si>
+  <si>
+    <t>Muhayyo</t>
+  </si>
+  <si>
+    <t>903833552</t>
+  </si>
+  <si>
+    <t>909404997</t>
+  </si>
+  <si>
+    <t>Aziza</t>
+  </si>
+  <si>
+    <t>90 5208220</t>
+  </si>
+  <si>
+    <t>Mohidil</t>
+  </si>
+  <si>
+    <t>915089098</t>
+  </si>
+  <si>
+    <t>Sayxunobod tumani</t>
+  </si>
+  <si>
+    <t>Nasrullo</t>
+  </si>
+  <si>
+    <t>912345678</t>
+  </si>
+  <si>
+    <t>Shukrullo</t>
+  </si>
+  <si>
+    <t>911747125</t>
+  </si>
+  <si>
+    <t>Misha</t>
+  </si>
+  <si>
+    <t>+998945180403</t>
+  </si>
+  <si>
+    <t>Jarqorgon tumani</t>
+  </si>
+  <si>
+    <t>Feruza</t>
+  </si>
+  <si>
+    <t>931078018</t>
+  </si>
+  <si>
+    <t>Jondor tumani</t>
+  </si>
+  <si>
+    <t>Gggg</t>
+  </si>
+  <si>
+    <t>99 999 9999</t>
+  </si>
+  <si>
+    <t>Abdugopir</t>
+  </si>
+  <si>
+    <t>932533478</t>
+  </si>
+  <si>
+    <t>Mahliyo</t>
+  </si>
+  <si>
+    <t>94 6443493</t>
+  </si>
+  <si>
+    <t>Ramazon</t>
+  </si>
+  <si>
+    <t>90 910 2593</t>
+  </si>
+  <si>
+    <t>Oʻtkir</t>
+  </si>
+  <si>
+    <t>944137769</t>
+  </si>
+  <si>
+    <t>Parkent tumani</t>
+  </si>
+  <si>
+    <t>Töraboyev Sardor</t>
+  </si>
+  <si>
+    <t>99 173 08 70</t>
+  </si>
+  <si>
+    <t>Asliddin</t>
+  </si>
+  <si>
+    <t>950112003</t>
+  </si>
+  <si>
+    <t>Фаррух</t>
+  </si>
+  <si>
+    <t>90 994 8657</t>
+  </si>
+  <si>
+    <t>Lp</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>142567788</t>
+  </si>
+  <si>
+    <t>+998991234567</t>
+  </si>
+  <si>
+    <t>Munisa</t>
+  </si>
+  <si>
+    <t>901222709</t>
+  </si>
+  <si>
+    <t>909017527</t>
+  </si>
+  <si>
+    <t>Xurshid</t>
+  </si>
+  <si>
+    <t>88 580 00 10</t>
+  </si>
+  <si>
+    <t>999997959</t>
+  </si>
+  <si>
+    <t>Шерали</t>
+  </si>
+  <si>
+    <t>909013836</t>
+  </si>
+  <si>
+    <t>Shifokor ??</t>
+  </si>
+  <si>
+    <t>Dilmurodjon</t>
+  </si>
+  <si>
+    <t>997296924</t>
+  </si>
+  <si>
+    <t>Furqat tumani</t>
+  </si>
+  <si>
+    <t>91 910 2593</t>
+  </si>
+  <si>
+    <t>Doston</t>
+  </si>
+  <si>
+    <t>88 007 4303</t>
+  </si>
+  <si>
+    <t>Shoira</t>
+  </si>
+  <si>
+    <t>997842270</t>
+  </si>
+  <si>
+    <t>Choriyeva Xurshidabonu</t>
+  </si>
+  <si>
+    <t>97 534 36 35</t>
+  </si>
+  <si>
+    <t>Angor tumani</t>
+  </si>
+  <si>
+    <t>Zuhra</t>
+  </si>
+  <si>
+    <t>991382502</t>
+  </si>
+  <si>
+    <t>Qorgontepa tumani</t>
+  </si>
+  <si>
+    <t>Qodir</t>
+  </si>
+  <si>
+    <t>99 054 56 06</t>
+  </si>
+  <si>
+    <t>Samarqand shahri</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>989999999</t>
+  </si>
+  <si>
+    <t>Qoraqolpogiston Respublikasi</t>
+  </si>
+  <si>
+    <t>Qorauzak tumani</t>
+  </si>
+  <si>
+    <t>MIcrostar</t>
+  </si>
+  <si>
+    <t>91 332 67 45</t>
+  </si>
+  <si>
+    <t>farrux</t>
+  </si>
+  <si>
+    <t>Vasya</t>
+  </si>
+  <si>
+    <t>Farxod</t>
+  </si>
+  <si>
+    <t>+998901234567</t>
+  </si>
+  <si>
+    <t>901234567</t>
+  </si>
+  <si>
+    <t>Shahzodjon</t>
+  </si>
+  <si>
+    <t>Xoliq</t>
+  </si>
+  <si>
+    <t>890000000</t>
+  </si>
+  <si>
+    <t>Buloqboshi tumani</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>112223344</t>
+  </si>
+  <si>
+    <t>Nishon tumani</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Ahmadjon</t>
+  </si>
+  <si>
+    <t>950069820</t>
+  </si>
+  <si>
+    <t>Maftuna</t>
+  </si>
+  <si>
+    <t>93 781 2040</t>
   </si>
 </sst>
 </file>
@@ -2289,6 +3000,3341 @@
         <v>8</v>
       </c>
     </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>206</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>182</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>165</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" t="s">
+        <v>227</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>99</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>232</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>235</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" t="s">
+        <v>242</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+      <c r="J93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s">
+        <v>247</v>
+      </c>
+      <c r="E94" t="s">
+        <v>248</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>238</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>257</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>182</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" t="s">
+        <v>156</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>264</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>81</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" t="s">
+        <v>274</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" t="s">
+        <v>279</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>39</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" t="s">
+        <v>279</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s">
+        <v>284</v>
+      </c>
+      <c r="I109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" t="s">
+        <v>234</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>235</v>
+      </c>
+      <c r="I110" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s">
+        <v>287</v>
+      </c>
+      <c r="C111" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>289</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" t="s">
+        <v>182</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>289</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>22</v>
+      </c>
+      <c r="I113" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" t="s">
+        <v>296</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>289</v>
+      </c>
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>297</v>
+      </c>
+      <c r="D116" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" t="s">
+        <v>298</v>
+      </c>
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C117" t="s">
+        <v>300</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" t="s">
+        <v>303</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" t="s">
+        <v>303</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" t="s">
+        <v>111</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" t="s">
+        <v>307</v>
+      </c>
+      <c r="D121" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" t="s">
+        <v>111</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" t="s">
+        <v>311</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s">
+        <v>312</v>
+      </c>
+      <c r="C124" t="s">
+        <v>313</v>
+      </c>
+      <c r="D124" t="s">
+        <v>84</v>
+      </c>
+      <c r="E124" t="s">
+        <v>95</v>
+      </c>
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>5</v>
+      </c>
+      <c r="H124" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s">
+        <v>314</v>
+      </c>
+      <c r="C125" t="s">
+        <v>315</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s">
+        <v>316</v>
+      </c>
+      <c r="C126" t="s">
+        <v>317</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126" t="s">
+        <v>235</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s">
+        <v>318</v>
+      </c>
+      <c r="C127" t="s">
+        <v>319</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" t="s">
+        <v>84</v>
+      </c>
+      <c r="E129" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" t="s">
+        <v>7</v>
+      </c>
+      <c r="J129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" t="s">
+        <v>241</v>
+      </c>
+      <c r="E130" t="s">
+        <v>325</v>
+      </c>
+      <c r="F130" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" t="s">
+        <v>22</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s">
+        <v>326</v>
+      </c>
+      <c r="C131" t="s">
+        <v>327</v>
+      </c>
+      <c r="D131" t="s">
+        <v>84</v>
+      </c>
+      <c r="E131" t="s">
+        <v>234</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s">
+        <v>328</v>
+      </c>
+      <c r="C132" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>177</v>
+      </c>
+      <c r="F132" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" t="s">
+        <v>331</v>
+      </c>
+      <c r="D133" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" t="s">
+        <v>332</v>
+      </c>
+      <c r="F133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" t="s">
+        <v>334</v>
+      </c>
+      <c r="D134" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" t="s">
+        <v>335</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" t="s">
+        <v>22</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" t="s">
+        <v>337</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s">
+        <v>338</v>
+      </c>
+      <c r="C136" t="s">
+        <v>339</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>5</v>
+      </c>
+      <c r="H136" t="s">
+        <v>22</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>251</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>22</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" t="s">
+        <v>334</v>
+      </c>
+      <c r="D138" t="s">
+        <v>125</v>
+      </c>
+      <c r="E138" t="s">
+        <v>335</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" t="s">
+        <v>22</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" t="s">
+        <v>84</v>
+      </c>
+      <c r="E139" t="s">
+        <v>234</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" t="s">
+        <v>92</v>
+      </c>
+      <c r="I139" t="s">
+        <v>7</v>
+      </c>
+      <c r="J139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" t="s">
+        <v>345</v>
+      </c>
+      <c r="D140" t="s">
+        <v>87</v>
+      </c>
+      <c r="E140" t="s">
+        <v>346</v>
+      </c>
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s">
+        <v>347</v>
+      </c>
+      <c r="C141" t="s">
+        <v>348</v>
+      </c>
+      <c r="D141" t="s">
+        <v>84</v>
+      </c>
+      <c r="E141" t="s">
+        <v>332</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" t="s">
+        <v>39</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s">
+        <v>349</v>
+      </c>
+      <c r="C142" t="s">
+        <v>350</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s">
+        <v>351</v>
+      </c>
+      <c r="C143" t="s">
+        <v>352</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143" t="s">
+        <v>39</v>
+      </c>
+      <c r="I143" t="s">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s">
+        <v>353</v>
+      </c>
+      <c r="C144" t="s">
+        <v>354</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>206</v>
+      </c>
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144" t="s">
+        <v>235</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s">
+        <v>355</v>
+      </c>
+      <c r="C145" t="s">
+        <v>356</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145" t="s">
+        <v>165</v>
+      </c>
+      <c r="I145" t="s">
+        <v>7</v>
+      </c>
+      <c r="J145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s">
+        <v>249</v>
+      </c>
+      <c r="C146" t="s">
+        <v>357</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" t="s">
+        <v>92</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s">
+        <v>358</v>
+      </c>
+      <c r="C147" t="s">
+        <v>359</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>206</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" t="s">
+        <v>235</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s">
+        <v>358</v>
+      </c>
+      <c r="C148" t="s">
+        <v>360</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" t="s">
+        <v>7</v>
+      </c>
+      <c r="J148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="s">
+        <v>361</v>
+      </c>
+      <c r="C149" t="s">
+        <v>362</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s">
+        <v>7</v>
+      </c>
+      <c r="J149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" t="s">
+        <v>363</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>206</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>57</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s">
+        <v>364</v>
+      </c>
+      <c r="C151" t="s">
+        <v>365</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>206</v>
+      </c>
+      <c r="F151" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" t="s">
+        <v>366</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" t="s">
+        <v>368</v>
+      </c>
+      <c r="D152" t="s">
+        <v>170</v>
+      </c>
+      <c r="E152" t="s">
+        <v>369</v>
+      </c>
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" t="s">
+        <v>7</v>
+      </c>
+      <c r="J152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s">
+        <v>342</v>
+      </c>
+      <c r="C153" t="s">
+        <v>370</v>
+      </c>
+      <c r="D153" t="s">
+        <v>84</v>
+      </c>
+      <c r="E153" t="s">
+        <v>234</v>
+      </c>
+      <c r="F153" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" t="s">
+        <v>7</v>
+      </c>
+      <c r="J153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s">
+        <v>371</v>
+      </c>
+      <c r="C154" t="s">
+        <v>372</v>
+      </c>
+      <c r="D154" t="s">
+        <v>125</v>
+      </c>
+      <c r="E154" t="s">
+        <v>227</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>188</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>155</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" t="s">
+        <v>89</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" t="s">
+        <v>374</v>
+      </c>
+      <c r="D156" t="s">
+        <v>84</v>
+      </c>
+      <c r="E156" t="s">
+        <v>234</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s">
+        <v>375</v>
+      </c>
+      <c r="C157" t="s">
+        <v>376</v>
+      </c>
+      <c r="D157" t="s">
+        <v>84</v>
+      </c>
+      <c r="E157" t="s">
+        <v>377</v>
+      </c>
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" t="s">
+        <v>7</v>
+      </c>
+      <c r="J157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" t="s">
+        <v>379</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>380</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>380</v>
+      </c>
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s">
+        <v>381</v>
+      </c>
+      <c r="C160" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" t="s">
+        <v>148</v>
+      </c>
+      <c r="E160" t="s">
+        <v>383</v>
+      </c>
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s">
+        <v>384</v>
+      </c>
+      <c r="C161" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161" t="s">
+        <v>165</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s">
+        <v>385</v>
+      </c>
+      <c r="C162" t="s">
+        <v>386</v>
+      </c>
+      <c r="D162" t="s">
+        <v>387</v>
+      </c>
+      <c r="E162" t="s">
+        <v>388</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" t="s">
+        <v>7</v>
+      </c>
+      <c r="J162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s">
+        <v>389</v>
+      </c>
+      <c r="C163" t="s">
+        <v>390</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s">
+        <v>5</v>
+      </c>
+      <c r="H163" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" t="s">
+        <v>7</v>
+      </c>
+      <c r="J163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s">
+        <v>391</v>
+      </c>
+      <c r="C164" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" t="s">
+        <v>7</v>
+      </c>
+      <c r="J164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s">
+        <v>392</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" t="s">
+        <v>206</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>7</v>
+      </c>
+      <c r="J165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s">
+        <v>393</v>
+      </c>
+      <c r="C166" t="s">
+        <v>394</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>206</v>
+      </c>
+      <c r="F166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" t="s">
+        <v>21</v>
+      </c>
+      <c r="H166" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="s">
+        <v>355</v>
+      </c>
+      <c r="C167" t="s">
+        <v>395</v>
+      </c>
+      <c r="D167" t="s">
+        <v>87</v>
+      </c>
+      <c r="E167" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s">
+        <v>21</v>
+      </c>
+      <c r="H167" t="s">
+        <v>57</v>
+      </c>
+      <c r="I167" t="s">
+        <v>7</v>
+      </c>
+      <c r="J167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" t="s">
+        <v>188</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168" t="s">
+        <v>235</v>
+      </c>
+      <c r="I168" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s">
+        <v>396</v>
+      </c>
+      <c r="C169" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>5</v>
+      </c>
+      <c r="H169" t="s">
+        <v>26</v>
+      </c>
+      <c r="I169" t="s">
+        <v>7</v>
+      </c>
+      <c r="J169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" t="s">
+        <v>398</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>399</v>
+      </c>
+      <c r="F170" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="s">
+        <v>400</v>
+      </c>
+      <c r="C171" t="s">
+        <v>401</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" t="s">
+        <v>402</v>
+      </c>
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>5</v>
+      </c>
+      <c r="H171" t="s">
+        <v>63</v>
+      </c>
+      <c r="I171" t="s">
+        <v>7</v>
+      </c>
+      <c r="J171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="s">
+        <v>403</v>
+      </c>
+      <c r="C172" t="s">
+        <v>401</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s">
+        <v>404</v>
+      </c>
+      <c r="C173" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>7</v>
+      </c>
+      <c r="J173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" t="s">
+        <v>406</v>
+      </c>
+      <c r="D174" t="s">
+        <v>170</v>
+      </c>
+      <c r="E174" t="s">
+        <v>279</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" t="s">
+        <v>57</v>
+      </c>
+      <c r="I174" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="s">
+        <v>407</v>
+      </c>
+      <c r="C175" t="s">
+        <v>408</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s">
+        <v>21</v>
+      </c>
+      <c r="H175" t="s">
+        <v>22</v>
+      </c>
+      <c r="I175" t="s">
+        <v>7</v>
+      </c>
+      <c r="J175" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="452">
   <si>
     <t>Tursunboy</t>
   </si>
@@ -1239,6 +1239,135 @@
   </si>
   <si>
     <t>93 781 2040</t>
+  </si>
+  <si>
+    <t>Авазбек</t>
+  </si>
+  <si>
+    <t>99 9900838</t>
+  </si>
+  <si>
+    <t>90 990 0838</t>
+  </si>
+  <si>
+    <t>Karamatullo</t>
+  </si>
+  <si>
+    <t>998129566</t>
+  </si>
+  <si>
+    <t>Ozod</t>
+  </si>
+  <si>
+    <t>998547496</t>
+  </si>
+  <si>
+    <t>Habibullo Hasanov</t>
+  </si>
+  <si>
+    <t>+998994500617</t>
+  </si>
+  <si>
+    <t>Боходир</t>
+  </si>
+  <si>
+    <t>+998946751100</t>
+  </si>
+  <si>
+    <t>3D Max designer  ??</t>
+  </si>
+  <si>
+    <t>Shoxrux Haydarov</t>
+  </si>
+  <si>
+    <t>Tojimurodov Nurbek Asraljon o'g'li</t>
+  </si>
+  <si>
+    <t>Haydovchi ??</t>
+  </si>
+  <si>
+    <t>Mustafo</t>
+  </si>
+  <si>
+    <t>90 739 9929</t>
+  </si>
+  <si>
+    <t>Iqtisodchi ??</t>
+  </si>
+  <si>
+    <t>Xusanov Shamsiddin</t>
+  </si>
+  <si>
+    <t>+998999935665</t>
+  </si>
+  <si>
+    <t>Bekjon</t>
+  </si>
+  <si>
+    <t>949222197</t>
+  </si>
+  <si>
+    <t>Юсуф</t>
+  </si>
+  <si>
+    <t>+998912101061</t>
+  </si>
+  <si>
+    <t>Yakkabog tumani</t>
+  </si>
+  <si>
+    <t>91 210 10 61</t>
+  </si>
+  <si>
+    <t>Dala ishlari??</t>
+  </si>
+  <si>
+    <t>Mehrillo</t>
+  </si>
+  <si>
+    <t>99 901 46 36</t>
+  </si>
+  <si>
+    <t>Uchkoprik tumani</t>
+  </si>
+  <si>
+    <t>Bek</t>
+  </si>
+  <si>
+    <t>998899813</t>
+  </si>
+  <si>
+    <t>Baxodir</t>
+  </si>
+  <si>
+    <t>995889316</t>
+  </si>
+  <si>
+    <t>914908008</t>
+  </si>
+  <si>
+    <t>Full stack dasturchi ????‍??</t>
+  </si>
+  <si>
+    <t>Поииллии</t>
+  </si>
+  <si>
+    <t>903457839</t>
+  </si>
+  <si>
+    <t>97 342 74 71</t>
+  </si>
+  <si>
+    <t>Shahriyor</t>
+  </si>
+  <si>
+    <t>936696635</t>
+  </si>
+  <si>
+    <t>Jahongit</t>
+  </si>
+  <si>
+    <t>90 696 1196</t>
   </si>
 </sst>
 </file>
@@ -6335,6 +6464,673 @@
         <v>8</v>
       </c>
     </row>
+    <row r="176">
+      <c r="B176" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>116</v>
+      </c>
+      <c r="F176" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="s">
+        <v>409</v>
+      </c>
+      <c r="C177" t="s">
+        <v>411</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>116</v>
+      </c>
+      <c r="F177" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="s">
+        <v>412</v>
+      </c>
+      <c r="C178" t="s">
+        <v>413</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="s">
+        <v>405</v>
+      </c>
+      <c r="C179" t="s">
+        <v>406</v>
+      </c>
+      <c r="D179" t="s">
+        <v>170</v>
+      </c>
+      <c r="E179" t="s">
+        <v>279</v>
+      </c>
+      <c r="F179" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179" t="s">
+        <v>57</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="s">
+        <v>414</v>
+      </c>
+      <c r="C180" t="s">
+        <v>415</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" t="s">
+        <v>155</v>
+      </c>
+      <c r="F180" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
+        <v>5</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>7</v>
+      </c>
+      <c r="J180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="s">
+        <v>416</v>
+      </c>
+      <c r="C181" t="s">
+        <v>417</v>
+      </c>
+      <c r="D181" t="s">
+        <v>42</v>
+      </c>
+      <c r="E181" t="s">
+        <v>111</v>
+      </c>
+      <c r="F181" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" t="s">
+        <v>374</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>264</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" t="s">
+        <v>22</v>
+      </c>
+      <c r="I182" t="s">
+        <v>7</v>
+      </c>
+      <c r="J182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" t="s">
+        <v>419</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
+        <v>5</v>
+      </c>
+      <c r="H183" t="s">
+        <v>420</v>
+      </c>
+      <c r="I183" t="s">
+        <v>7</v>
+      </c>
+      <c r="J183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s">
+        <v>421</v>
+      </c>
+      <c r="C184" t="s">
+        <v>212</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
+        <v>81</v>
+      </c>
+      <c r="F184" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="s">
+        <v>422</v>
+      </c>
+      <c r="C185" t="s">
+        <v>78</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>3</v>
+      </c>
+      <c r="F185" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
+        <v>5</v>
+      </c>
+      <c r="H185" t="s">
+        <v>423</v>
+      </c>
+      <c r="I185" t="s">
+        <v>7</v>
+      </c>
+      <c r="J185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="s">
+        <v>424</v>
+      </c>
+      <c r="C186" t="s">
+        <v>425</v>
+      </c>
+      <c r="D186" t="s">
+        <v>42</v>
+      </c>
+      <c r="E186" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" t="s">
+        <v>426</v>
+      </c>
+      <c r="I186" t="s">
+        <v>7</v>
+      </c>
+      <c r="J186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="s">
+        <v>427</v>
+      </c>
+      <c r="C187" t="s">
+        <v>428</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
+        <v>5</v>
+      </c>
+      <c r="H187" t="s">
+        <v>63</v>
+      </c>
+      <c r="I187" t="s">
+        <v>15</v>
+      </c>
+      <c r="J187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="s">
+        <v>429</v>
+      </c>
+      <c r="C188" t="s">
+        <v>430</v>
+      </c>
+      <c r="D188" t="s">
+        <v>87</v>
+      </c>
+      <c r="E188" t="s">
+        <v>98</v>
+      </c>
+      <c r="F188" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s">
+        <v>5</v>
+      </c>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s">
+        <v>7</v>
+      </c>
+      <c r="J188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s">
+        <v>431</v>
+      </c>
+      <c r="C189" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" t="s">
+        <v>433</v>
+      </c>
+      <c r="F189" t="s">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
+        <v>5</v>
+      </c>
+      <c r="H189" t="s">
+        <v>6</v>
+      </c>
+      <c r="I189" t="s">
+        <v>7</v>
+      </c>
+      <c r="J189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="s">
+        <v>431</v>
+      </c>
+      <c r="C190" t="s">
+        <v>434</v>
+      </c>
+      <c r="D190" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" t="s">
+        <v>433</v>
+      </c>
+      <c r="F190" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s">
+        <v>5</v>
+      </c>
+      <c r="H190" t="s">
+        <v>435</v>
+      </c>
+      <c r="I190" t="s">
+        <v>7</v>
+      </c>
+      <c r="J190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s">
+        <v>436</v>
+      </c>
+      <c r="C191" t="s">
+        <v>437</v>
+      </c>
+      <c r="D191" t="s">
+        <v>170</v>
+      </c>
+      <c r="E191" t="s">
+        <v>438</v>
+      </c>
+      <c r="F191" t="s">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
+        <v>5</v>
+      </c>
+      <c r="H191" t="s">
+        <v>6</v>
+      </c>
+      <c r="I191" t="s">
+        <v>7</v>
+      </c>
+      <c r="J191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s">
+        <v>439</v>
+      </c>
+      <c r="C192" t="s">
+        <v>440</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>5</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>7</v>
+      </c>
+      <c r="J192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s">
+        <v>441</v>
+      </c>
+      <c r="C193" t="s">
+        <v>442</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>69</v>
+      </c>
+      <c r="F193" t="s">
+        <v>4</v>
+      </c>
+      <c r="G193" t="s">
+        <v>5</v>
+      </c>
+      <c r="H193" t="s">
+        <v>423</v>
+      </c>
+      <c r="I193" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s">
+        <v>74</v>
+      </c>
+      <c r="C194" t="s">
+        <v>443</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>116</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194" t="s">
+        <v>444</v>
+      </c>
+      <c r="I194" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="s">
+        <v>445</v>
+      </c>
+      <c r="C195" t="s">
+        <v>446</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195" t="s">
+        <v>26</v>
+      </c>
+      <c r="I195" t="s">
+        <v>7</v>
+      </c>
+      <c r="J195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" t="s">
+        <v>447</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>81</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>5</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>7</v>
+      </c>
+      <c r="J196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="s">
+        <v>448</v>
+      </c>
+      <c r="C197" t="s">
+        <v>449</v>
+      </c>
+      <c r="D197" t="s">
+        <v>148</v>
+      </c>
+      <c r="E197" t="s">
+        <v>383</v>
+      </c>
+      <c r="F197" t="s">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
+        <v>5</v>
+      </c>
+      <c r="H197" t="s">
+        <v>39</v>
+      </c>
+      <c r="I197" t="s">
+        <v>7</v>
+      </c>
+      <c r="J197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="s">
+        <v>450</v>
+      </c>
+      <c r="C198" t="s">
+        <v>451</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>152</v>
+      </c>
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" t="s">
+        <v>5</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>7</v>
+      </c>
+      <c r="J198" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/users.xlsx
+++ b/src/main/resources/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="591">
   <si>
     <t>Sherali</t>
   </si>
@@ -1445,250 +1445,346 @@
     <t>++998943821261</t>
   </si>
   <si>
-    <t>Gjb</t>
+    <t>Firuza</t>
+  </si>
+  <si>
+    <t>+998909067637</t>
+  </si>
+  <si>
+    <t>Odilova Mohinur</t>
+  </si>
+  <si>
+    <t>+998907325721</t>
+  </si>
+  <si>
+    <t>Nurkeldi Akimbayev</t>
+  </si>
+  <si>
+    <t>+998936066035</t>
+  </si>
+  <si>
+    <t>Kulanbergenov Dosimjan</t>
+  </si>
+  <si>
+    <t>+998997212514</t>
+  </si>
+  <si>
+    <t>+821076713019</t>
+  </si>
+  <si>
+    <t>Munavvar</t>
+  </si>
+  <si>
+    <t>+998900620338</t>
+  </si>
+  <si>
+    <t>Shoaziz</t>
+  </si>
+  <si>
+    <t>++998935011112</t>
+  </si>
+  <si>
+    <t>Ravshanxo'ja</t>
+  </si>
+  <si>
+    <t>+998990276708</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>+998997447057</t>
+  </si>
+  <si>
+    <t>Mahkamov Nurullo Baxtiyor oʻgʻli</t>
+  </si>
+  <si>
+    <t>+998946410061</t>
+  </si>
+  <si>
+    <t>Sardor</t>
+  </si>
+  <si>
+    <t>+998994692710</t>
+  </si>
+  <si>
+    <t>Chinoz tumani</t>
+  </si>
+  <si>
+    <t>Jasurbek</t>
+  </si>
+  <si>
+    <t>+998999948959</t>
+  </si>
+  <si>
+    <t>Valijon</t>
+  </si>
+  <si>
+    <t>+998999597317</t>
+  </si>
+  <si>
+    <t>Gavhar</t>
+  </si>
+  <si>
+    <t>+998994623565</t>
+  </si>
+  <si>
+    <t>Sherzod Atadjanov</t>
+  </si>
+  <si>
+    <t>+998998221907</t>
+  </si>
+  <si>
+    <t>Johongir</t>
+  </si>
+  <si>
+    <t>+998915500491</t>
+  </si>
+  <si>
+    <t>Injiner texnolog  ⚙️</t>
+  </si>
+  <si>
+    <t>Ashuraliyev Po'latxon</t>
+  </si>
+  <si>
+    <t>+998945092734</t>
+  </si>
+  <si>
+    <t>Nishonbek</t>
+  </si>
+  <si>
+    <t>Kamron</t>
+  </si>
+  <si>
+    <t>+998932718402</t>
+  </si>
+  <si>
+    <t>+998881629696</t>
+  </si>
+  <si>
+    <t>++998932718402</t>
+  </si>
+  <si>
+    <t>Sarvar Azimov</t>
+  </si>
+  <si>
+    <t>+998998028672</t>
+  </si>
+  <si>
+    <t>Dohonbek</t>
+  </si>
+  <si>
+    <t>+998908467890</t>
+  </si>
+  <si>
+    <t>Qoshtepa tumani</t>
+  </si>
+  <si>
+    <t>+998916321322</t>
+  </si>
+  <si>
+    <t>Jamshid</t>
+  </si>
+  <si>
+    <t>+998990204454</t>
+  </si>
+  <si>
+    <t>Temur</t>
+  </si>
+  <si>
+    <t>+998995283404</t>
+  </si>
+  <si>
+    <t>+16064312603</t>
+  </si>
+  <si>
+    <t>Toshkent tumani</t>
+  </si>
+  <si>
+    <t>Behruz</t>
+  </si>
+  <si>
+    <t>+998934556647</t>
+  </si>
+  <si>
+    <t>Kogon tumani</t>
+  </si>
+  <si>
+    <t>Ulug'bek</t>
+  </si>
+  <si>
+    <t>++998999117665</t>
+  </si>
+  <si>
+    <t>Asqarjon</t>
+  </si>
+  <si>
+    <t>+998949474843</t>
+  </si>
+  <si>
+    <t>Saidqulov Sohibjon</t>
+  </si>
+  <si>
+    <t>+998901080510</t>
+  </si>
+  <si>
+    <t>Юлдашев А</t>
+  </si>
+  <si>
+    <t>+998979441100</t>
+  </si>
+  <si>
+    <t>Qoraqolpogiston Respublikasi</t>
+  </si>
+  <si>
+    <t>Turtkul tumani</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Bekimmatov Bo'ron</t>
+  </si>
+  <si>
+    <t>+998905934477</t>
+  </si>
+  <si>
+    <t>Amudaryo tumani</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>+14793632978</t>
+  </si>
+  <si>
+    <t>SMM mutaxassisi ??‍??</t>
+  </si>
+  <si>
+    <t>Xalmuratova Fotima</t>
+  </si>
+  <si>
+    <t>+998930000462</t>
+  </si>
+  <si>
+    <t>Dinara Baxtiyorova</t>
+  </si>
+  <si>
+    <t>+998331220508</t>
+  </si>
+  <si>
+    <t>Farmasevt????‍??</t>
+  </si>
+  <si>
+    <t>Dilshodbek Tojiboyev</t>
+  </si>
+  <si>
+    <t>+998972585526</t>
+  </si>
+  <si>
+    <t>Дурдона Бахтиёрова</t>
+  </si>
+  <si>
+    <t>+998909877910</t>
+  </si>
+  <si>
+    <t>Og'abek o'ktamov</t>
+  </si>
+  <si>
+    <t>+998912524740</t>
+  </si>
+  <si>
+    <t>Ulug'bek Yo'lchimurodov</t>
+  </si>
+  <si>
+    <t>+998999117665</t>
+  </si>
+  <si>
+    <t>Shuhrat Doniyev</t>
+  </si>
+  <si>
+    <t>+998973129662</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>+998944951799</t>
   </si>
   <si>
-    <t>Qassob ??</t>
-  </si>
-  <si>
-    <t>Firuza</t>
-  </si>
-  <si>
-    <t>+998909067637</t>
-  </si>
-  <si>
-    <t>Odilova Mohinur</t>
-  </si>
-  <si>
-    <t>+998907325721</t>
-  </si>
-  <si>
-    <t>Nurkeldi Akimbayev</t>
-  </si>
-  <si>
-    <t>+998936066035</t>
-  </si>
-  <si>
-    <t>Kulanbergenov Dosimjan</t>
-  </si>
-  <si>
-    <t>+998997212514</t>
-  </si>
-  <si>
-    <t>+821076713019</t>
-  </si>
-  <si>
-    <t>Munavvar</t>
-  </si>
-  <si>
-    <t>+998900620338</t>
-  </si>
-  <si>
-    <t>Shoaziz</t>
-  </si>
-  <si>
-    <t>++998935011112</t>
-  </si>
-  <si>
-    <t>Ravshanxo'ja</t>
-  </si>
-  <si>
-    <t>+998990276708</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
-    <t>+998997447057</t>
-  </si>
-  <si>
-    <t>Mahkamov Nurullo Baxtiyor oʻgʻli</t>
-  </si>
-  <si>
-    <t>+998946410061</t>
-  </si>
-  <si>
-    <t>Sardor</t>
-  </si>
-  <si>
-    <t>+998994692710</t>
-  </si>
-  <si>
-    <t>Chinoz tumani</t>
-  </si>
-  <si>
-    <t>Jasurbek</t>
-  </si>
-  <si>
-    <t>+998999948959</t>
-  </si>
-  <si>
-    <t>Valijon</t>
-  </si>
-  <si>
-    <t>+998999597317</t>
-  </si>
-  <si>
-    <t>Gavhar</t>
-  </si>
-  <si>
-    <t>+998994623565</t>
-  </si>
-  <si>
-    <t>Sherzod Atadjanov</t>
-  </si>
-  <si>
-    <t>+998998221907</t>
-  </si>
-  <si>
-    <t>Johongir</t>
-  </si>
-  <si>
-    <t>+998915500491</t>
-  </si>
-  <si>
-    <t>Injiner texnolog  ⚙️</t>
-  </si>
-  <si>
-    <t>Ashuraliyev Po'latxon</t>
-  </si>
-  <si>
-    <t>+998945092734</t>
-  </si>
-  <si>
-    <t>Nishonbek</t>
-  </si>
-  <si>
-    <t>Kamron</t>
-  </si>
-  <si>
-    <t>+998932718402</t>
-  </si>
-  <si>
-    <t>+998881629696</t>
-  </si>
-  <si>
-    <t>++998932718402</t>
-  </si>
-  <si>
-    <t>Sarvar Azimov</t>
-  </si>
-  <si>
-    <t>+998998028672</t>
-  </si>
-  <si>
-    <t>Dohonbek</t>
-  </si>
-  <si>
-    <t>+998908467890</t>
-  </si>
-  <si>
-    <t>Qoshtepa tumani</t>
-  </si>
-  <si>
-    <t>+998916321322</t>
-  </si>
-  <si>
-    <t>Jamshid</t>
-  </si>
-  <si>
-    <t>+998990204454</t>
-  </si>
-  <si>
-    <t>Temur</t>
-  </si>
-  <si>
-    <t>+998995283404</t>
-  </si>
-  <si>
-    <t>+16064312603</t>
-  </si>
-  <si>
-    <t>Toshkent tumani</t>
-  </si>
-  <si>
-    <t>Behruz</t>
-  </si>
-  <si>
-    <t>+998934556647</t>
-  </si>
-  <si>
-    <t>Kogon tumani</t>
-  </si>
-  <si>
-    <t>Ulug'bek</t>
-  </si>
-  <si>
-    <t>++998999117665</t>
-  </si>
-  <si>
-    <t>Asqarjon</t>
-  </si>
-  <si>
-    <t>+998949474843</t>
-  </si>
-  <si>
-    <t>Saidqulov Sohibjon</t>
-  </si>
-  <si>
-    <t>+998901080510</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Юлдашев А</t>
-  </si>
-  <si>
-    <t>+998979441100</t>
-  </si>
-  <si>
-    <t>Qoraqolpogiston Respublikasi</t>
-  </si>
-  <si>
-    <t>Turtkul tumani</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Bekimmatov Bo'ron</t>
-  </si>
-  <si>
-    <t>+998905934477</t>
-  </si>
-  <si>
-    <t>Amudaryo tumani</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>John Terry</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Jahon</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>+14793632978</t>
-  </si>
-  <si>
-    <t>SMM mutaxassisi ??‍??</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Marketolog ????‍??</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Begali</t>
+  </si>
+  <si>
+    <t>+998943884167</t>
+  </si>
+  <si>
+    <t>Shovot tumani</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Tobisa</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Farrosh  ??</t>
+  </si>
+  <si>
+    <t>Solim</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Jombi</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Jd</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Hd</t>
+  </si>
+  <si>
+    <t>Xovos tumani</t>
+  </si>
+  <si>
+    <t>Abdurasulov Shahzod</t>
+  </si>
+  <si>
+    <t>+998946022399</t>
   </si>
 </sst>
 </file>
@@ -7753,19 +7849,19 @@
         <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F209" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H209" t="s">
-        <v>479</v>
+        <v>56</v>
       </c>
       <c r="I209" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J209" t="s">
         <v>8</v>
@@ -7773,16 +7869,16 @@
     </row>
     <row r="210">
       <c r="B210" t="s">
+        <v>479</v>
+      </c>
+      <c r="C210" t="s">
         <v>480</v>
       </c>
-      <c r="C210" t="s">
-        <v>481</v>
-      </c>
       <c r="D210" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E210" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F210" t="s">
         <v>18</v>
@@ -7802,28 +7898,28 @@
     </row>
     <row r="211">
       <c r="B211" t="s">
+        <v>481</v>
+      </c>
+      <c r="C211" t="s">
         <v>482</v>
       </c>
-      <c r="C211" t="s">
-        <v>483</v>
-      </c>
       <c r="D211" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E211" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F211" t="s">
         <v>18</v>
       </c>
       <c r="G211" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H211" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I211" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J211" t="s">
         <v>8</v>
@@ -7831,16 +7927,16 @@
     </row>
     <row r="212">
       <c r="B212" t="s">
+        <v>483</v>
+      </c>
+      <c r="C212" t="s">
         <v>484</v>
-      </c>
-      <c r="C212" t="s">
-        <v>485</v>
       </c>
       <c r="D212" t="s">
         <v>75</v>
       </c>
       <c r="E212" t="s">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
         <v>18</v>
@@ -7849,7 +7945,7 @@
         <v>5</v>
       </c>
       <c r="H212" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I212" t="s">
         <v>7</v>
@@ -7860,74 +7956,74 @@
     </row>
     <row r="213">
       <c r="B213" t="s">
-        <v>486</v>
+        <v>142</v>
       </c>
       <c r="C213" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D213" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G213" t="s">
         <v>5</v>
       </c>
       <c r="H213" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="I213" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J213" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="s">
-        <v>142</v>
+        <v>486</v>
       </c>
       <c r="C214" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D214" t="s">
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F214" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G214" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H214" t="s">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="I214" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J214" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C215" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D215" t="s">
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="F215" t="s">
         <v>18</v>
@@ -7936,7 +8032,7 @@
         <v>51</v>
       </c>
       <c r="H215" t="s">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="I215" t="s">
         <v>7</v>
@@ -7947,25 +8043,25 @@
     </row>
     <row r="216">
       <c r="B216" t="s">
+        <v>488</v>
+      </c>
+      <c r="C216" t="s">
         <v>489</v>
       </c>
-      <c r="C216" t="s">
-        <v>490</v>
-      </c>
       <c r="D216" t="s">
         <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="F216" t="s">
         <v>18</v>
       </c>
       <c r="G216" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H216" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="I216" t="s">
         <v>7</v>
@@ -7976,16 +8072,16 @@
     </row>
     <row r="217">
       <c r="B217" t="s">
+        <v>490</v>
+      </c>
+      <c r="C217" t="s">
         <v>491</v>
       </c>
-      <c r="C217" t="s">
-        <v>492</v>
-      </c>
       <c r="D217" t="s">
         <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>69</v>
+        <v>471</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
@@ -7994,7 +8090,7 @@
         <v>5</v>
       </c>
       <c r="H217" t="s">
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="I217" t="s">
         <v>7</v>
@@ -8005,16 +8101,16 @@
     </row>
     <row r="218">
       <c r="B218" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C218" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D218" t="s">
         <v>2</v>
       </c>
       <c r="E218" t="s">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="F218" t="s">
         <v>18</v>
@@ -8023,27 +8119,27 @@
         <v>5</v>
       </c>
       <c r="H218" t="s">
-        <v>456</v>
+        <v>56</v>
       </c>
       <c r="I218" t="s">
         <v>7</v>
       </c>
       <c r="J218" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s">
+        <v>492</v>
+      </c>
+      <c r="C219" t="s">
         <v>493</v>
       </c>
-      <c r="C219" t="s">
-        <v>494</v>
-      </c>
       <c r="D219" t="s">
         <v>2</v>
       </c>
       <c r="E219" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F219" t="s">
         <v>18</v>
@@ -8052,27 +8148,27 @@
         <v>5</v>
       </c>
       <c r="H219" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="I219" t="s">
         <v>7</v>
       </c>
       <c r="J219" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" t="s">
+        <v>494</v>
+      </c>
+      <c r="C220" t="s">
         <v>495</v>
       </c>
-      <c r="C220" t="s">
-        <v>496</v>
-      </c>
       <c r="D220" t="s">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F220" t="s">
         <v>18</v>
@@ -8081,10 +8177,10 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="I220" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J220" t="s">
         <v>8</v>
@@ -8092,31 +8188,31 @@
     </row>
     <row r="221">
       <c r="B221" t="s">
+        <v>496</v>
+      </c>
+      <c r="C221" t="s">
         <v>497</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
+        <v>75</v>
+      </c>
+      <c r="E221" t="s">
         <v>498</v>
       </c>
-      <c r="D221" t="s">
-        <v>2</v>
-      </c>
-      <c r="E221" t="s">
-        <v>69</v>
-      </c>
       <c r="F221" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G221" t="s">
         <v>5</v>
       </c>
       <c r="H221" t="s">
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="I221" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J221" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
@@ -8127,22 +8223,22 @@
         <v>500</v>
       </c>
       <c r="D222" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="E222" t="s">
-        <v>501</v>
+        <v>326</v>
       </c>
       <c r="F222" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G222" t="s">
         <v>5</v>
       </c>
       <c r="H222" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I222" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J222" t="s">
         <v>13</v>
@@ -8150,16 +8246,16 @@
     </row>
     <row r="223">
       <c r="B223" t="s">
+        <v>501</v>
+      </c>
+      <c r="C223" t="s">
         <v>502</v>
       </c>
-      <c r="C223" t="s">
-        <v>503</v>
-      </c>
       <c r="D223" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="F223" t="s">
         <v>18</v>
@@ -8168,21 +8264,21 @@
         <v>5</v>
       </c>
       <c r="H223" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="I223" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J223" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C224" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D224" t="s">
         <v>2</v>
@@ -8197,7 +8293,7 @@
         <v>5</v>
       </c>
       <c r="H224" t="s">
-        <v>158</v>
+        <v>456</v>
       </c>
       <c r="I224" t="s">
         <v>7</v>
@@ -8208,16 +8304,16 @@
     </row>
     <row r="225">
       <c r="B225" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C225" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D225" t="s">
         <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F225" t="s">
         <v>18</v>
@@ -8226,10 +8322,10 @@
         <v>5</v>
       </c>
       <c r="H225" t="s">
-        <v>456</v>
+        <v>158</v>
       </c>
       <c r="I225" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J225" t="s">
         <v>8</v>
@@ -8237,89 +8333,89 @@
     </row>
     <row r="226">
       <c r="B226" t="s">
+        <v>503</v>
+      </c>
+      <c r="C226" t="s">
         <v>504</v>
       </c>
-      <c r="C226" t="s">
-        <v>505</v>
-      </c>
       <c r="D226" t="s">
         <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G226" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H226" t="s">
-        <v>158</v>
+        <v>456</v>
       </c>
       <c r="I226" t="s">
         <v>12</v>
       </c>
       <c r="J226" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="s">
+        <v>505</v>
+      </c>
+      <c r="C227" t="s">
         <v>506</v>
       </c>
-      <c r="C227" t="s">
-        <v>507</v>
-      </c>
       <c r="D227" t="s">
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
         <v>4</v>
       </c>
       <c r="G227" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>456</v>
+        <v>42</v>
       </c>
       <c r="I227" t="s">
         <v>12</v>
       </c>
       <c r="J227" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="s">
+        <v>507</v>
+      </c>
+      <c r="C228" t="s">
         <v>508</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
+        <v>272</v>
+      </c>
+      <c r="E228" t="s">
+        <v>442</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>5</v>
+      </c>
+      <c r="H228" t="s">
         <v>509</v>
       </c>
-      <c r="D228" t="s">
-        <v>2</v>
-      </c>
-      <c r="E228" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" t="s">
-        <v>4</v>
-      </c>
-      <c r="G228" t="s">
-        <v>5</v>
-      </c>
-      <c r="H228" t="s">
-        <v>42</v>
-      </c>
       <c r="I228" t="s">
         <v>12</v>
       </c>
       <c r="J228" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
@@ -8330,10 +8426,10 @@
         <v>511</v>
       </c>
       <c r="D229" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="E229" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
         <v>18</v>
@@ -8342,7 +8438,7 @@
         <v>5</v>
       </c>
       <c r="H229" t="s">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="I229" t="s">
         <v>12</v>
@@ -8353,16 +8449,16 @@
     </row>
     <row r="230">
       <c r="B230" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C230" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
       <c r="D230" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>438</v>
+        <v>3</v>
       </c>
       <c r="F230" t="s">
         <v>18</v>
@@ -8371,27 +8467,27 @@
         <v>5</v>
       </c>
       <c r="H230" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I230" t="s">
         <v>12</v>
       </c>
       <c r="J230" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C231" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="D231" t="s">
         <v>2</v>
       </c>
       <c r="E231" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F231" t="s">
         <v>18</v>
@@ -8400,27 +8496,27 @@
         <v>5</v>
       </c>
       <c r="H231" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I231" t="s">
         <v>12</v>
       </c>
       <c r="J231" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="s">
-        <v>516</v>
+        <v>130</v>
       </c>
       <c r="C232" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D232" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E232" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="F232" t="s">
         <v>18</v>
@@ -8429,27 +8525,27 @@
         <v>5</v>
       </c>
       <c r="H232" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I232" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J232" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="s">
-        <v>130</v>
+        <v>513</v>
       </c>
       <c r="C233" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D233" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="F233" t="s">
         <v>18</v>
@@ -8458,21 +8554,21 @@
         <v>5</v>
       </c>
       <c r="H233" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="I233" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J233" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C234" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D234" t="s">
         <v>2</v>
@@ -8487,27 +8583,27 @@
         <v>5</v>
       </c>
       <c r="H234" t="s">
-        <v>6</v>
+        <v>432</v>
       </c>
       <c r="I234" t="s">
         <v>12</v>
       </c>
       <c r="J234" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C235" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
       </c>
       <c r="E235" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F235" t="s">
         <v>18</v>
@@ -8516,10 +8612,10 @@
         <v>5</v>
       </c>
       <c r="H235" t="s">
-        <v>432</v>
+        <v>56</v>
       </c>
       <c r="I235" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J235" t="s">
         <v>8</v>
@@ -8527,16 +8623,16 @@
     </row>
     <row r="236">
       <c r="B236" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="C236" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="D236" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="E236" t="s">
-        <v>69</v>
+        <v>521</v>
       </c>
       <c r="F236" t="s">
         <v>18</v>
@@ -8545,27 +8641,27 @@
         <v>5</v>
       </c>
       <c r="H236" t="s">
-        <v>56</v>
+        <v>456</v>
       </c>
       <c r="I236" t="s">
         <v>7</v>
       </c>
       <c r="J236" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="s">
+        <v>294</v>
+      </c>
+      <c r="C237" t="s">
         <v>522</v>
       </c>
-      <c r="C237" t="s">
-        <v>523</v>
-      </c>
       <c r="D237" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>524</v>
+        <v>48</v>
       </c>
       <c r="F237" t="s">
         <v>18</v>
@@ -8574,7 +8670,7 @@
         <v>5</v>
       </c>
       <c r="H237" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="I237" t="s">
         <v>7</v>
@@ -8585,16 +8681,16 @@
     </row>
     <row r="238">
       <c r="B238" t="s">
-        <v>294</v>
+        <v>523</v>
       </c>
       <c r="C238" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E238" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="F238" t="s">
         <v>18</v>
@@ -8603,7 +8699,7 @@
         <v>5</v>
       </c>
       <c r="H238" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I238" t="s">
         <v>7</v>
@@ -8614,16 +8710,16 @@
     </row>
     <row r="239">
       <c r="B239" t="s">
+        <v>525</v>
+      </c>
+      <c r="C239" t="s">
         <v>526</v>
       </c>
-      <c r="C239" t="s">
-        <v>527</v>
-      </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E239" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="F239" t="s">
         <v>18</v>
@@ -8632,7 +8728,7 @@
         <v>5</v>
       </c>
       <c r="H239" t="s">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="I239" t="s">
         <v>7</v>
@@ -8643,16 +8739,16 @@
     </row>
     <row r="240">
       <c r="B240" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="C240" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F240" t="s">
         <v>18</v>
@@ -8661,7 +8757,7 @@
         <v>5</v>
       </c>
       <c r="H240" t="s">
-        <v>367</v>
+        <v>158</v>
       </c>
       <c r="I240" t="s">
         <v>7</v>
@@ -8672,10 +8768,10 @@
     </row>
     <row r="241">
       <c r="B241" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C241" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -8684,13 +8780,13 @@
         <v>22</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G241" t="s">
         <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="I241" t="s">
         <v>7</v>
@@ -8701,28 +8797,28 @@
     </row>
     <row r="242">
       <c r="B242" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="C242" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D242" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E242" t="s">
-        <v>22</v>
+        <v>528</v>
       </c>
       <c r="F242" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G242" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H242" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I242" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J242" t="s">
         <v>13</v>
@@ -8730,13 +8826,13 @@
     </row>
     <row r="243">
       <c r="B243" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
       <c r="C243" t="s">
         <v>530</v>
       </c>
       <c r="D243" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E243" t="s">
         <v>531</v>
@@ -8745,10 +8841,10 @@
         <v>18</v>
       </c>
       <c r="G243" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H243" t="s">
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="I243" t="s">
         <v>12</v>
@@ -8765,10 +8861,10 @@
         <v>533</v>
       </c>
       <c r="D244" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>534</v>
+        <v>363</v>
       </c>
       <c r="F244" t="s">
         <v>18</v>
@@ -8777,7 +8873,7 @@
         <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="I244" t="s">
         <v>12</v>
@@ -8788,10 +8884,10 @@
     </row>
     <row r="245">
       <c r="B245" t="s">
+        <v>534</v>
+      </c>
+      <c r="C245" t="s">
         <v>535</v>
-      </c>
-      <c r="C245" t="s">
-        <v>536</v>
       </c>
       <c r="D245" t="s">
         <v>2</v>
@@ -8806,7 +8902,7 @@
         <v>5</v>
       </c>
       <c r="H245" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I245" t="s">
         <v>12</v>
@@ -8817,16 +8913,16 @@
     </row>
     <row r="246">
       <c r="B246" t="s">
+        <v>536</v>
+      </c>
+      <c r="C246" t="s">
         <v>537</v>
       </c>
-      <c r="C246" t="s">
-        <v>538</v>
-      </c>
       <c r="D246" t="s">
         <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>363</v>
+        <v>187</v>
       </c>
       <c r="F246" t="s">
         <v>18</v>
@@ -8835,27 +8931,27 @@
         <v>5</v>
       </c>
       <c r="H246" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I246" t="s">
         <v>12</v>
       </c>
       <c r="J246" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="s">
+        <v>538</v>
+      </c>
+      <c r="C247" t="s">
         <v>539</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>540</v>
       </c>
-      <c r="D247" t="s">
-        <v>2</v>
-      </c>
       <c r="E247" t="s">
-        <v>187</v>
+        <v>541</v>
       </c>
       <c r="F247" t="s">
         <v>18</v>
@@ -8864,27 +8960,27 @@
         <v>5</v>
       </c>
       <c r="H247" t="s">
-        <v>37</v>
+        <v>509</v>
       </c>
       <c r="I247" t="s">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="J247" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C248" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="D248" t="s">
-        <v>2</v>
+        <v>540</v>
       </c>
       <c r="E248" t="s">
-        <v>22</v>
+        <v>545</v>
       </c>
       <c r="F248" t="s">
         <v>18</v>
@@ -8893,39 +8989,39 @@
         <v>5</v>
       </c>
       <c r="H248" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="I248" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="J248" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="s">
-        <v>542</v>
+        <v>454</v>
       </c>
       <c r="C249" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D249" t="s">
-        <v>544</v>
+        <v>75</v>
       </c>
       <c r="E249" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="F249" t="s">
         <v>18</v>
       </c>
       <c r="G249" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H249" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="I249" t="s">
-        <v>546</v>
+        <v>12</v>
       </c>
       <c r="J249" t="s">
         <v>13</v>
@@ -8933,28 +9029,28 @@
     </row>
     <row r="250">
       <c r="B250" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C250" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D250" t="s">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>549</v>
+        <v>190</v>
       </c>
       <c r="F250" t="s">
         <v>18</v>
       </c>
       <c r="G250" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H250" t="s">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="I250" t="s">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="J250" t="s">
         <v>8</v>
@@ -8965,25 +9061,25 @@
         <v>551</v>
       </c>
       <c r="C251" t="s">
-        <v>478</v>
+        <v>552</v>
       </c>
       <c r="D251" t="s">
         <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="F251" t="s">
         <v>18</v>
       </c>
       <c r="G251" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H251" t="s">
-        <v>258</v>
+        <v>553</v>
       </c>
       <c r="I251" t="s">
-        <v>552</v>
+        <v>12</v>
       </c>
       <c r="J251" t="s">
         <v>13</v>
@@ -8991,57 +9087,57 @@
     </row>
     <row r="252">
       <c r="B252" t="s">
+        <v>554</v>
+      </c>
+      <c r="C252" t="s">
+        <v>555</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>137</v>
+      </c>
+      <c r="F252" t="s">
+        <v>18</v>
+      </c>
+      <c r="G252" t="s">
+        <v>5</v>
+      </c>
+      <c r="H252" t="s">
         <v>553</v>
       </c>
-      <c r="C252" t="s">
-        <v>478</v>
-      </c>
-      <c r="D252" t="s">
-        <v>2</v>
-      </c>
-      <c r="E252" t="s">
-        <v>22</v>
-      </c>
-      <c r="F252" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s">
-        <v>5</v>
-      </c>
-      <c r="H252" t="s">
-        <v>258</v>
-      </c>
       <c r="I252" t="s">
-        <v>552</v>
+        <v>7</v>
       </c>
       <c r="J252" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
       <c r="B253" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C253" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="D253" t="s">
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="F253" t="s">
         <v>18</v>
       </c>
       <c r="G253" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H253" t="s">
-        <v>258</v>
+        <v>553</v>
       </c>
       <c r="I253" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J253" t="s">
         <v>13</v>
@@ -9049,28 +9145,28 @@
     </row>
     <row r="254">
       <c r="B254" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C254" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="D254" t="s">
         <v>2</v>
       </c>
       <c r="E254" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="F254" t="s">
         <v>18</v>
       </c>
       <c r="G254" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H254" t="s">
-        <v>258</v>
+        <v>509</v>
       </c>
       <c r="I254" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J254" t="s">
         <v>13</v>
@@ -9078,10 +9174,10 @@
     </row>
     <row r="255">
       <c r="B255" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C255" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="D255" t="s">
         <v>2</v>
@@ -9096,10 +9192,10 @@
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="I255" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J255" t="s">
         <v>13</v>
@@ -9107,30 +9203,436 @@
     </row>
     <row r="256">
       <c r="B256" t="s">
-        <v>454</v>
+        <v>558</v>
       </c>
       <c r="C256" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D256" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>531</v>
+        <v>22</v>
       </c>
       <c r="F256" t="s">
         <v>18</v>
       </c>
       <c r="G256" t="s">
+        <v>5</v>
+      </c>
+      <c r="H256" t="s">
+        <v>37</v>
+      </c>
+      <c r="I256" t="s">
+        <v>7</v>
+      </c>
+      <c r="J256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s">
+        <v>560</v>
+      </c>
+      <c r="C257" t="s">
+        <v>561</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>363</v>
+      </c>
+      <c r="F257" t="s">
+        <v>18</v>
+      </c>
+      <c r="G257" t="s">
+        <v>5</v>
+      </c>
+      <c r="H257" t="s">
+        <v>6</v>
+      </c>
+      <c r="I257" t="s">
+        <v>12</v>
+      </c>
+      <c r="J257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="s">
+        <v>562</v>
+      </c>
+      <c r="C258" t="s">
+        <v>563</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s">
+        <v>137</v>
+      </c>
+      <c r="F258" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" t="s">
+        <v>5</v>
+      </c>
+      <c r="H258" t="s">
+        <v>6</v>
+      </c>
+      <c r="I258" t="s">
+        <v>12</v>
+      </c>
+      <c r="J258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="s">
+        <v>564</v>
+      </c>
+      <c r="C259" t="s">
+        <v>565</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>3</v>
+      </c>
+      <c r="F259" t="s">
+        <v>566</v>
+      </c>
+      <c r="G259" t="s">
+        <v>5</v>
+      </c>
+      <c r="H259" t="s">
+        <v>567</v>
+      </c>
+      <c r="I259" t="s">
+        <v>12</v>
+      </c>
+      <c r="J259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="s">
+        <v>568</v>
+      </c>
+      <c r="C260" t="s">
+        <v>565</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2</v>
+      </c>
+      <c r="E260" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" t="s">
+        <v>569</v>
+      </c>
+      <c r="G260" t="s">
+        <v>5</v>
+      </c>
+      <c r="H260" t="s">
+        <v>258</v>
+      </c>
+      <c r="I260" t="s">
+        <v>12</v>
+      </c>
+      <c r="J260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="s">
+        <v>568</v>
+      </c>
+      <c r="C261" t="s">
+        <v>565</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2</v>
+      </c>
+      <c r="E261" t="s">
+        <v>3</v>
+      </c>
+      <c r="F261" t="s">
+        <v>570</v>
+      </c>
+      <c r="G261" t="s">
+        <v>5</v>
+      </c>
+      <c r="H261" t="s">
+        <v>567</v>
+      </c>
+      <c r="I261" t="s">
+        <v>12</v>
+      </c>
+      <c r="J261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="s">
+        <v>571</v>
+      </c>
+      <c r="C262" t="s">
+        <v>572</v>
+      </c>
+      <c r="D262" t="s">
+        <v>59</v>
+      </c>
+      <c r="E262" t="s">
+        <v>573</v>
+      </c>
+      <c r="F262" t="s">
+        <v>574</v>
+      </c>
+      <c r="G262" t="s">
+        <v>5</v>
+      </c>
+      <c r="H262" t="s">
+        <v>548</v>
+      </c>
+      <c r="I262" t="s">
+        <v>12</v>
+      </c>
+      <c r="J262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="s">
+        <v>575</v>
+      </c>
+      <c r="C263" t="s">
+        <v>572</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263" t="s">
+        <v>3</v>
+      </c>
+      <c r="F263" t="s">
+        <v>576</v>
+      </c>
+      <c r="G263" t="s">
+        <v>5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>577</v>
+      </c>
+      <c r="I263" t="s">
+        <v>12</v>
+      </c>
+      <c r="J263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="s">
+        <v>578</v>
+      </c>
+      <c r="C264" t="s">
+        <v>572</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" t="s">
+        <v>579</v>
+      </c>
+      <c r="G264" t="s">
+        <v>5</v>
+      </c>
+      <c r="H264" t="s">
+        <v>258</v>
+      </c>
+      <c r="I264" t="s">
+        <v>12</v>
+      </c>
+      <c r="J264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="s">
+        <v>580</v>
+      </c>
+      <c r="C265" t="s">
+        <v>572</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>22</v>
+      </c>
+      <c r="F265" t="s">
+        <v>581</v>
+      </c>
+      <c r="G265" t="s">
+        <v>5</v>
+      </c>
+      <c r="H265" t="s">
+        <v>258</v>
+      </c>
+      <c r="I265" t="s">
+        <v>12</v>
+      </c>
+      <c r="J265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="s">
+        <v>582</v>
+      </c>
+      <c r="C266" t="s">
+        <v>572</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>22</v>
+      </c>
+      <c r="F266" t="s">
+        <v>583</v>
+      </c>
+      <c r="G266" t="s">
+        <v>5</v>
+      </c>
+      <c r="H266" t="s">
+        <v>567</v>
+      </c>
+      <c r="I266" t="s">
+        <v>12</v>
+      </c>
+      <c r="J266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="s">
+        <v>584</v>
+      </c>
+      <c r="C267" t="s">
+        <v>572</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2</v>
+      </c>
+      <c r="E267" t="s">
+        <v>3</v>
+      </c>
+      <c r="F267" t="s">
+        <v>585</v>
+      </c>
+      <c r="G267" t="s">
+        <v>5</v>
+      </c>
+      <c r="H267" t="s">
+        <v>567</v>
+      </c>
+      <c r="I267" t="s">
+        <v>12</v>
+      </c>
+      <c r="J267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="s">
+        <v>586</v>
+      </c>
+      <c r="C268" t="s">
+        <v>572</v>
+      </c>
+      <c r="D268" t="s">
+        <v>59</v>
+      </c>
+      <c r="E268" t="s">
+        <v>573</v>
+      </c>
+      <c r="F268" t="s">
+        <v>569</v>
+      </c>
+      <c r="G268" t="s">
         <v>51</v>
       </c>
-      <c r="H256" t="s">
-        <v>558</v>
-      </c>
-      <c r="I256" t="s">
-        <v>12</v>
-      </c>
-      <c r="J256" t="s">
+      <c r="H268" t="s">
+        <v>567</v>
+      </c>
+      <c r="I268" t="s">
+        <v>12</v>
+      </c>
+      <c r="J268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="s">
+        <v>587</v>
+      </c>
+      <c r="C269" t="s">
+        <v>572</v>
+      </c>
+      <c r="D269" t="s">
+        <v>215</v>
+      </c>
+      <c r="E269" t="s">
+        <v>588</v>
+      </c>
+      <c r="F269" t="s">
+        <v>585</v>
+      </c>
+      <c r="G269" t="s">
+        <v>51</v>
+      </c>
+      <c r="H269" t="s">
+        <v>388</v>
+      </c>
+      <c r="I269" t="s">
+        <v>7</v>
+      </c>
+      <c r="J269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="s">
+        <v>589</v>
+      </c>
+      <c r="C270" t="s">
+        <v>590</v>
+      </c>
+      <c r="D270" t="s">
+        <v>72</v>
+      </c>
+      <c r="E270" t="s">
+        <v>306</v>
+      </c>
+      <c r="F270" t="s">
+        <v>566</v>
+      </c>
+      <c r="G270" t="s">
+        <v>5</v>
+      </c>
+      <c r="H270" t="s">
+        <v>56</v>
+      </c>
+      <c r="I270" t="s">
+        <v>12</v>
+      </c>
+      <c r="J270" t="s">
         <v>13</v>
       </c>
     </row>
